--- a/data/long_razon/P18_1-Edad-long_razon.xlsx
+++ b/data/long_razon/P18_1-Edad-long_razon.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K17"/>
+  <dimension ref="A1:Q18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -526,6 +526,12 @@
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
     <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -542,20 +548,26 @@
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="G1" s="3" t="n"/>
-      <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
+      <c r="I1" s="3" t="n"/>
       <c r="J1" s="3" t="n"/>
       <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="n"/>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -577,32 +589,62 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>M5-M4</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2-Mz1</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
           <t>M2-M1</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M3-M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M4-M3</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M5-M4</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2-Mz1</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>M2-M1</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="N2" s="3" t="inlineStr">
         <is>
           <t>M3-M2</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="O2" s="3" t="inlineStr">
         <is>
           <t>M4-M3</t>
+        </is>
+      </c>
+      <c r="P2" s="3" t="inlineStr">
+        <is>
+          <t>M5-M4</t>
+        </is>
+      </c>
+      <c r="Q2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2-Mz1</t>
         </is>
       </c>
     </row>
@@ -618,6 +660,12 @@
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
       <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -632,47 +680,77 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-74,0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>71,81%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>30,96%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-78,5%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>45,04%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>-5,0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>-76,57%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>55,36%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>7,23%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -685,47 +763,77 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-87,77; -47,6</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-15,55; 307,59</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-39,19; 212,48</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-88,59; -64,25</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-8,64; 151,41</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-40,04; 48,98</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-85,4; -64,58</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>6,38; 142,52</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-27,47; 64,17</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -742,47 +850,77 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-77,12%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>151,04%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-33,01%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-78,1%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>-3,96%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>24,12%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>-77,71%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>38,53%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>-8,47%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -795,47 +933,77 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-91,53; -49,3</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>20,02; 539,28</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-63,86; 22,68</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-89,63; -58,14</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-41,07; 71,11</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-19,06; 87,32</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-87,75; -62,85</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-7,74; 127,89</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-36,99; 31,48</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -852,47 +1020,77 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-57,83%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>31,38%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-26,84%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-61,86%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>50,11%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>0,25%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>-60,1%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>41,83%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>-10,44%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -905,47 +1103,77 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-79,41; -15,64</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-33,59; 156,0</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-68,09; 29,25</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-72,8; -47,28</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0,6; 119,48</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-26,03; 41,9</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-72,18; -41,42</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>3,89; 108,45</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-37,4; 19,98</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -962,47 +1190,77 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-50,07%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>129,67%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-12,54%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-51,9%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>49,68%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>8,83%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>-51,19%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>74,27%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>-0,18%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1015,47 +1273,77 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-68,71; -20,53</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>34,47; 298,72</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-44,62; 38,8</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-67,87; -30,61</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>4,9; 118,42</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-20,46; 49,25</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-63,59; -34,47</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>28,3; 136,08</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-24,02; 29,24</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1072,47 +1360,77 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>-58,07%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>12,9%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>34,69%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>-43,21%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>40,4%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>1,38%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>-49,51%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>27,94%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>13,22%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1125,47 +1443,77 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-78,08; -27,25</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-34,49; 92,49</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-17,83; 121,66</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-64,67; -14,26</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-8,96; 122,48</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-31,29; 44,3</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-65,26; -28,3</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-8,7; 80,25</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-15,38; 54,41</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1182,47 +1530,77 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>-39,32%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>79,98%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>-8,31%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>-14,29%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>15,32%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>10,26%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>-23,67%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>33,35%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>3,5%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="O14" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="P14" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q14" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1235,47 +1613,77 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-71,38; 20,25</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-46,09; 387,51</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-50,32; 70,54</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-45,03; 40,29</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-32,29; 97,3</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-35,44; 67,39</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-47,81; 11,59</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-19,07; 107,29</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-28,69; 44,0</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1292,47 +1700,77 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>-60,73%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>68,34%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>-9,08%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>-57,38%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>31,16%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>6,3%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>-58,76%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>44,38%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>-0,01%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="O16" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="P16" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q16" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1345,62 +1783,99 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-69,91; -48,84</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>23,47; 126,44</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-29,31; 16,35</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-64,44; -48,8</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>9,03; 60,62</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-11,55; 24,3</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-65,07; -52,54</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>21,21; 70,34</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-13,4; 14,01</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
-    <mergeCell ref="F1:H1"/>
-    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="C1:G1"/>
+    <mergeCell ref="H1:L1"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A16:A17"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
+    <mergeCell ref="M1:Q1"/>
     <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data/long_razon/P18_1-Edad-long_razon.xlsx
+++ b/data/long_razon/P18_1-Edad-long_razon.xlsx
@@ -683,21 +683,51 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C4" s="5" t="inlineStr"/>
-      <c r="D4" s="5" t="inlineStr"/>
-      <c r="E4" s="5" t="inlineStr"/>
-      <c r="F4" s="5" t="inlineStr"/>
-      <c r="G4" s="5" t="inlineStr"/>
-      <c r="H4" s="5" t="inlineStr"/>
-      <c r="I4" s="5" t="inlineStr"/>
-      <c r="J4" s="5" t="inlineStr"/>
-      <c r="K4" s="5" t="inlineStr"/>
-      <c r="L4" s="5" t="inlineStr"/>
-      <c r="M4" s="5" t="inlineStr"/>
-      <c r="N4" s="5" t="inlineStr"/>
-      <c r="O4" s="5" t="inlineStr"/>
-      <c r="P4" s="5" t="inlineStr"/>
-      <c r="Q4" s="5" t="inlineStr"/>
+      <c r="C4" s="5" t="n">
+        <v>-0.7432734892887218</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>1.153410351909501</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>0.1111350625646422</v>
+      </c>
+      <c r="F4" s="5" t="n">
+        <v>-0.3690334071436157</v>
+      </c>
+      <c r="G4" s="5" t="n">
+        <v>0.3931504722707737</v>
+      </c>
+      <c r="H4" s="5" t="n">
+        <v>-0.7810149386860693</v>
+      </c>
+      <c r="I4" s="5" t="n">
+        <v>0.569972694477946</v>
+      </c>
+      <c r="J4" s="5" t="n">
+        <v>-0.09062972581310418</v>
+      </c>
+      <c r="K4" s="5" t="n">
+        <v>-0.1057572440128332</v>
+      </c>
+      <c r="L4" s="5" t="n">
+        <v>-0.6402997501184025</v>
+      </c>
+      <c r="M4" s="5" t="n">
+        <v>-0.7654442330684822</v>
+      </c>
+      <c r="N4" s="5" t="n">
+        <v>0.796451582480074</v>
+      </c>
+      <c r="O4" s="5" t="n">
+        <v>-0.01697492106786763</v>
+      </c>
+      <c r="P4" s="5" t="n">
+        <v>-0.211216827847744</v>
+      </c>
+      <c r="Q4" s="5" t="n">
+        <v>-0.2470251631750293</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
@@ -706,21 +736,51 @@
           <t>IC 95% inferior</t>
         </is>
       </c>
-      <c r="C5" s="5" t="inlineStr"/>
-      <c r="D5" s="5" t="inlineStr"/>
-      <c r="E5" s="5" t="inlineStr"/>
-      <c r="F5" s="5" t="inlineStr"/>
-      <c r="G5" s="5" t="inlineStr"/>
-      <c r="H5" s="5" t="inlineStr"/>
-      <c r="I5" s="5" t="inlineStr"/>
-      <c r="J5" s="5" t="inlineStr"/>
-      <c r="K5" s="5" t="inlineStr"/>
-      <c r="L5" s="5" t="inlineStr"/>
-      <c r="M5" s="5" t="inlineStr"/>
-      <c r="N5" s="5" t="inlineStr"/>
-      <c r="O5" s="5" t="inlineStr"/>
-      <c r="P5" s="5" t="inlineStr"/>
-      <c r="Q5" s="5" t="inlineStr"/>
+      <c r="C5" s="5" t="n">
+        <v>-0.8713666963978743</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>-0.01765506115941012</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>-0.5066666905437668</v>
+      </c>
+      <c r="F5" s="5" t="n">
+        <v>-0.7711422654845878</v>
+      </c>
+      <c r="G5" s="5" t="n">
+        <v>-0.4918403201582845</v>
+      </c>
+      <c r="H5" s="5" t="n">
+        <v>-0.8861475584787537</v>
+      </c>
+      <c r="I5" s="5" t="n">
+        <v>-0.02939207422496923</v>
+      </c>
+      <c r="J5" s="5" t="n">
+        <v>-0.3905149642229695</v>
+      </c>
+      <c r="K5" s="5" t="n">
+        <v>-0.4762103488740406</v>
+      </c>
+      <c r="L5" s="5" t="n">
+        <v>-0.866417807958844</v>
+      </c>
+      <c r="M5" s="5" t="n">
+        <v>-0.8558493316835735</v>
+      </c>
+      <c r="N5" s="5" t="n">
+        <v>0.155872999436161</v>
+      </c>
+      <c r="O5" s="5" t="n">
+        <v>-0.3671502978424938</v>
+      </c>
+      <c r="P5" s="5" t="n">
+        <v>-0.5049339387136348</v>
+      </c>
+      <c r="Q5" s="5" t="n">
+        <v>-0.5959926224619081</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n"/>
@@ -729,21 +789,51 @@
           <t>IC 95% superior</t>
         </is>
       </c>
-      <c r="C6" s="5" t="inlineStr"/>
-      <c r="D6" s="5" t="inlineStr"/>
-      <c r="E6" s="5" t="inlineStr"/>
-      <c r="F6" s="5" t="inlineStr"/>
-      <c r="G6" s="5" t="inlineStr"/>
-      <c r="H6" s="5" t="inlineStr"/>
-      <c r="I6" s="5" t="inlineStr"/>
-      <c r="J6" s="5" t="inlineStr"/>
-      <c r="K6" s="5" t="inlineStr"/>
-      <c r="L6" s="5" t="inlineStr"/>
-      <c r="M6" s="5" t="inlineStr"/>
-      <c r="N6" s="5" t="inlineStr"/>
-      <c r="O6" s="5" t="inlineStr"/>
-      <c r="P6" s="5" t="inlineStr"/>
-      <c r="Q6" s="5" t="inlineStr"/>
+      <c r="C6" s="5" t="n">
+        <v>-0.519834396867059</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>3.889616267943437</v>
+      </c>
+      <c r="E6" s="5" t="n">
+        <v>1.560344308623862</v>
+      </c>
+      <c r="F6" s="5" t="n">
+        <v>0.9202429691143064</v>
+      </c>
+      <c r="G6" s="5" t="n">
+        <v>2.580030165601372</v>
+      </c>
+      <c r="H6" s="5" t="n">
+        <v>-0.6116867959141179</v>
+      </c>
+      <c r="I6" s="5" t="n">
+        <v>1.619178515144247</v>
+      </c>
+      <c r="J6" s="5" t="n">
+        <v>0.4468679415156407</v>
+      </c>
+      <c r="K6" s="5" t="n">
+        <v>0.5149295524591819</v>
+      </c>
+      <c r="L6" s="5" t="n">
+        <v>-0.1455217347688701</v>
+      </c>
+      <c r="M6" s="5" t="n">
+        <v>-0.6551074570882461</v>
+      </c>
+      <c r="N6" s="5" t="n">
+        <v>1.688465844999095</v>
+      </c>
+      <c r="O6" s="5" t="n">
+        <v>0.4314662373935312</v>
+      </c>
+      <c r="P6" s="5" t="n">
+        <v>0.2976985593582465</v>
+      </c>
+      <c r="Q6" s="5" t="n">
+        <v>0.4066244551408091</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -756,21 +846,51 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C7" s="5" t="inlineStr"/>
-      <c r="D7" s="5" t="inlineStr"/>
-      <c r="E7" s="5" t="inlineStr"/>
-      <c r="F7" s="5" t="inlineStr"/>
-      <c r="G7" s="5" t="inlineStr"/>
-      <c r="H7" s="5" t="inlineStr"/>
-      <c r="I7" s="5" t="inlineStr"/>
-      <c r="J7" s="5" t="inlineStr"/>
-      <c r="K7" s="5" t="inlineStr"/>
-      <c r="L7" s="5" t="inlineStr"/>
-      <c r="M7" s="5" t="inlineStr"/>
-      <c r="N7" s="5" t="inlineStr"/>
-      <c r="O7" s="5" t="inlineStr"/>
-      <c r="P7" s="5" t="inlineStr"/>
-      <c r="Q7" s="5" t="inlineStr"/>
+      <c r="C7" s="5" t="n">
+        <v>-0.7687267301901219</v>
+      </c>
+      <c r="D7" s="5" t="n">
+        <v>1.762994207411681</v>
+      </c>
+      <c r="E7" s="5" t="n">
+        <v>-0.352296064473718</v>
+      </c>
+      <c r="F7" s="5" t="n">
+        <v>1.445255986482004</v>
+      </c>
+      <c r="G7" s="5" t="n">
+        <v>-0.4728369972991281</v>
+      </c>
+      <c r="H7" s="5" t="n">
+        <v>-0.8038727131885056</v>
+      </c>
+      <c r="I7" s="5" t="n">
+        <v>-0.05403783494689756</v>
+      </c>
+      <c r="J7" s="5" t="n">
+        <v>0.2635452667778452</v>
+      </c>
+      <c r="K7" s="5" t="n">
+        <v>-0.3540596378430035</v>
+      </c>
+      <c r="L7" s="5" t="n">
+        <v>-0.08511800976374809</v>
+      </c>
+      <c r="M7" s="5" t="n">
+        <v>-0.7903724628913789</v>
+      </c>
+      <c r="N7" s="5" t="n">
+        <v>0.4079088257523606</v>
+      </c>
+      <c r="O7" s="5" t="n">
+        <v>-0.09287625727338303</v>
+      </c>
+      <c r="P7" s="5" t="n">
+        <v>0.3271511597886115</v>
+      </c>
+      <c r="Q7" s="5" t="n">
+        <v>-0.2595683423887186</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n"/>
@@ -779,21 +899,51 @@
           <t>IC 95% inferior</t>
         </is>
       </c>
-      <c r="C8" s="5" t="inlineStr"/>
-      <c r="D8" s="5" t="inlineStr"/>
-      <c r="E8" s="5" t="inlineStr"/>
-      <c r="F8" s="5" t="inlineStr"/>
-      <c r="G8" s="5" t="inlineStr"/>
-      <c r="H8" s="5" t="inlineStr"/>
-      <c r="I8" s="5" t="inlineStr"/>
-      <c r="J8" s="5" t="inlineStr"/>
-      <c r="K8" s="5" t="inlineStr"/>
-      <c r="L8" s="5" t="inlineStr"/>
-      <c r="M8" s="5" t="inlineStr"/>
-      <c r="N8" s="5" t="inlineStr"/>
-      <c r="O8" s="5" t="inlineStr"/>
-      <c r="P8" s="5" t="inlineStr"/>
-      <c r="Q8" s="5" t="inlineStr"/>
+      <c r="C8" s="5" t="n">
+        <v>-0.9186828727557795</v>
+      </c>
+      <c r="D8" s="5" t="n">
+        <v>0.2212112193572371</v>
+      </c>
+      <c r="E8" s="5" t="n">
+        <v>-0.6562258569191024</v>
+      </c>
+      <c r="F8" s="5" t="n">
+        <v>0.0238850383650991</v>
+      </c>
+      <c r="G8" s="5" t="n">
+        <v>-0.8960784170561191</v>
+      </c>
+      <c r="H8" s="5" t="n">
+        <v>-0.9042611037326557</v>
+      </c>
+      <c r="I8" s="5" t="n">
+        <v>-0.4144762993472924</v>
+      </c>
+      <c r="J8" s="5" t="n">
+        <v>-0.1743769951162169</v>
+      </c>
+      <c r="K8" s="5" t="n">
+        <v>-0.6079055085619428</v>
+      </c>
+      <c r="L8" s="5" t="n">
+        <v>-0.4774837382328114</v>
+      </c>
+      <c r="M8" s="5" t="n">
+        <v>-0.8779458701737601</v>
+      </c>
+      <c r="N8" s="5" t="n">
+        <v>-0.07110157225732465</v>
+      </c>
+      <c r="O8" s="5" t="n">
+        <v>-0.3626410456666838</v>
+      </c>
+      <c r="P8" s="5" t="n">
+        <v>-0.2074350673625573</v>
+      </c>
+      <c r="Q8" s="5" t="n">
+        <v>-0.5878136144852424</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
@@ -802,21 +952,51 @@
           <t>IC 95% superior</t>
         </is>
       </c>
-      <c r="C9" s="5" t="inlineStr"/>
-      <c r="D9" s="5" t="inlineStr"/>
-      <c r="E9" s="5" t="inlineStr"/>
-      <c r="F9" s="5" t="inlineStr"/>
-      <c r="G9" s="5" t="inlineStr"/>
-      <c r="H9" s="5" t="inlineStr"/>
-      <c r="I9" s="5" t="inlineStr"/>
-      <c r="J9" s="5" t="inlineStr"/>
-      <c r="K9" s="5" t="inlineStr"/>
-      <c r="L9" s="5" t="inlineStr"/>
-      <c r="M9" s="5" t="inlineStr"/>
-      <c r="N9" s="5" t="inlineStr"/>
-      <c r="O9" s="5" t="inlineStr"/>
-      <c r="P9" s="5" t="inlineStr"/>
-      <c r="Q9" s="5" t="inlineStr"/>
+      <c r="C9" s="5" t="n">
+        <v>-0.4844450197776953</v>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>5.865372452006877</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>0.1583811590853962</v>
+      </c>
+      <c r="F9" s="5" t="n">
+        <v>5.321308041682301</v>
+      </c>
+      <c r="G9" s="5" t="n">
+        <v>1.042352392044404</v>
+      </c>
+      <c r="H9" s="5" t="n">
+        <v>-0.6336738481340329</v>
+      </c>
+      <c r="I9" s="5" t="n">
+        <v>0.5548400111559145</v>
+      </c>
+      <c r="J9" s="5" t="n">
+        <v>0.9555713934643189</v>
+      </c>
+      <c r="K9" s="5" t="n">
+        <v>0.1234150128432302</v>
+      </c>
+      <c r="L9" s="5" t="n">
+        <v>0.6013439064802304</v>
+      </c>
+      <c r="M9" s="5" t="n">
+        <v>-0.6425338635124116</v>
+      </c>
+      <c r="N9" s="5" t="n">
+        <v>1.151376113311756</v>
+      </c>
+      <c r="O9" s="5" t="n">
+        <v>0.2909672670277023</v>
+      </c>
+      <c r="P9" s="5" t="n">
+        <v>1.455975335808778</v>
+      </c>
+      <c r="Q9" s="5" t="n">
+        <v>0.3304214231594547</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -829,21 +1009,51 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C10" s="5" t="inlineStr"/>
-      <c r="D10" s="5" t="inlineStr"/>
-      <c r="E10" s="5" t="inlineStr"/>
-      <c r="F10" s="5" t="inlineStr"/>
-      <c r="G10" s="5" t="inlineStr"/>
-      <c r="H10" s="5" t="inlineStr"/>
-      <c r="I10" s="5" t="inlineStr"/>
-      <c r="J10" s="5" t="inlineStr"/>
-      <c r="K10" s="5" t="inlineStr"/>
-      <c r="L10" s="5" t="inlineStr"/>
-      <c r="M10" s="5" t="inlineStr"/>
-      <c r="N10" s="5" t="inlineStr"/>
-      <c r="O10" s="5" t="inlineStr"/>
-      <c r="P10" s="5" t="inlineStr"/>
-      <c r="Q10" s="5" t="inlineStr"/>
+      <c r="C10" s="5" t="n">
+        <v>-0.6036873512490172</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>0.4671044787006288</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>-0.2108714073726194</v>
+      </c>
+      <c r="F10" s="5" t="n">
+        <v>0.5502330189186373</v>
+      </c>
+      <c r="G10" s="5" t="n">
+        <v>0.1637831505103287</v>
+      </c>
+      <c r="H10" s="5" t="n">
+        <v>-0.6225254495207949</v>
+      </c>
+      <c r="I10" s="5" t="n">
+        <v>0.563441990151322</v>
+      </c>
+      <c r="J10" s="5" t="n">
+        <v>-0.0144974962835865</v>
+      </c>
+      <c r="K10" s="5" t="n">
+        <v>-0.4280124775152245</v>
+      </c>
+      <c r="L10" s="5" t="n">
+        <v>0.6835723369781137</v>
+      </c>
+      <c r="M10" s="5" t="n">
+        <v>-0.6140708022054342</v>
+      </c>
+      <c r="N10" s="5" t="n">
+        <v>0.5214336130358217</v>
+      </c>
+      <c r="O10" s="5" t="n">
+        <v>-0.08934356310753974</v>
+      </c>
+      <c r="P10" s="5" t="n">
+        <v>-0.1433658264467678</v>
+      </c>
+      <c r="Q10" s="5" t="n">
+        <v>0.3533668450820013</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
@@ -852,21 +1062,51 @@
           <t>IC 95% inferior</t>
         </is>
       </c>
-      <c r="C11" s="5" t="inlineStr"/>
-      <c r="D11" s="5" t="inlineStr"/>
-      <c r="E11" s="5" t="inlineStr"/>
-      <c r="F11" s="5" t="inlineStr"/>
-      <c r="G11" s="5" t="inlineStr"/>
-      <c r="H11" s="5" t="inlineStr"/>
-      <c r="I11" s="5" t="inlineStr"/>
-      <c r="J11" s="5" t="inlineStr"/>
-      <c r="K11" s="5" t="inlineStr"/>
-      <c r="L11" s="5" t="inlineStr"/>
-      <c r="M11" s="5" t="inlineStr"/>
-      <c r="N11" s="5" t="inlineStr"/>
-      <c r="O11" s="5" t="inlineStr"/>
-      <c r="P11" s="5" t="inlineStr"/>
-      <c r="Q11" s="5" t="inlineStr"/>
+      <c r="C11" s="5" t="n">
+        <v>-0.8155702152672142</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>-0.2546285736140947</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>-0.6179915454451834</v>
+      </c>
+      <c r="F11" s="5" t="n">
+        <v>-0.1693393752795115</v>
+      </c>
+      <c r="G11" s="5" t="n">
+        <v>-0.3267573026994114</v>
+      </c>
+      <c r="H11" s="5" t="n">
+        <v>-0.7352332414163179</v>
+      </c>
+      <c r="I11" s="5" t="n">
+        <v>0.07169598692427616</v>
+      </c>
+      <c r="J11" s="5" t="n">
+        <v>-0.2730235136339244</v>
+      </c>
+      <c r="K11" s="5" t="n">
+        <v>-0.6344768228784278</v>
+      </c>
+      <c r="L11" s="5" t="n">
+        <v>-0.1139665366328189</v>
+      </c>
+      <c r="M11" s="5" t="n">
+        <v>-0.7326826223879545</v>
+      </c>
+      <c r="N11" s="5" t="n">
+        <v>0.1079234387747338</v>
+      </c>
+      <c r="O11" s="5" t="n">
+        <v>-0.361586017867368</v>
+      </c>
+      <c r="P11" s="5" t="n">
+        <v>-0.4037939494395201</v>
+      </c>
+      <c r="Q11" s="5" t="n">
+        <v>-0.1031903191743126</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n"/>
@@ -875,21 +1115,51 @@
           <t>IC 95% superior</t>
         </is>
       </c>
-      <c r="C12" s="5" t="inlineStr"/>
-      <c r="D12" s="5" t="inlineStr"/>
-      <c r="E12" s="5" t="inlineStr"/>
-      <c r="F12" s="5" t="inlineStr"/>
-      <c r="G12" s="5" t="inlineStr"/>
-      <c r="H12" s="5" t="inlineStr"/>
-      <c r="I12" s="5" t="inlineStr"/>
-      <c r="J12" s="5" t="inlineStr"/>
-      <c r="K12" s="5" t="inlineStr"/>
-      <c r="L12" s="5" t="inlineStr"/>
-      <c r="M12" s="5" t="inlineStr"/>
-      <c r="N12" s="5" t="inlineStr"/>
-      <c r="O12" s="5" t="inlineStr"/>
-      <c r="P12" s="5" t="inlineStr"/>
-      <c r="Q12" s="5" t="inlineStr"/>
+      <c r="C12" s="5" t="n">
+        <v>-0.217961286549146</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>2.029682951190898</v>
+      </c>
+      <c r="E12" s="5" t="n">
+        <v>0.4618721803977164</v>
+      </c>
+      <c r="F12" s="5" t="n">
+        <v>1.93679639846566</v>
+      </c>
+      <c r="G12" s="5" t="n">
+        <v>1.051916058429608</v>
+      </c>
+      <c r="H12" s="5" t="n">
+        <v>-0.4457170239992436</v>
+      </c>
+      <c r="I12" s="5" t="n">
+        <v>1.344890619929906</v>
+      </c>
+      <c r="J12" s="5" t="n">
+        <v>0.3595795293973781</v>
+      </c>
+      <c r="K12" s="5" t="n">
+        <v>-0.1308596243991415</v>
+      </c>
+      <c r="L12" s="5" t="n">
+        <v>2.222338003218201</v>
+      </c>
+      <c r="M12" s="5" t="n">
+        <v>-0.4340203784712484</v>
+      </c>
+      <c r="N12" s="5" t="n">
+        <v>1.250460936093098</v>
+      </c>
+      <c r="O12" s="5" t="n">
+        <v>0.2177500542806765</v>
+      </c>
+      <c r="P12" s="5" t="n">
+        <v>0.1735412408011618</v>
+      </c>
+      <c r="Q12" s="5" t="n">
+        <v>0.9568085214994697</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
@@ -902,21 +1172,51 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C13" s="5" t="inlineStr"/>
-      <c r="D13" s="5" t="inlineStr"/>
-      <c r="E13" s="5" t="inlineStr"/>
-      <c r="F13" s="5" t="inlineStr"/>
-      <c r="G13" s="5" t="inlineStr"/>
-      <c r="H13" s="5" t="inlineStr"/>
-      <c r="I13" s="5" t="inlineStr"/>
-      <c r="J13" s="5" t="inlineStr"/>
-      <c r="K13" s="5" t="inlineStr"/>
-      <c r="L13" s="5" t="inlineStr"/>
-      <c r="M13" s="5" t="inlineStr"/>
-      <c r="N13" s="5" t="inlineStr"/>
-      <c r="O13" s="5" t="inlineStr"/>
-      <c r="P13" s="5" t="inlineStr"/>
-      <c r="Q13" s="5" t="inlineStr"/>
+      <c r="C13" s="5" t="n">
+        <v>-0.5169703362747418</v>
+      </c>
+      <c r="D13" s="5" t="n">
+        <v>1.447206635548838</v>
+      </c>
+      <c r="E13" s="5" t="n">
+        <v>-0.1615076261811602</v>
+      </c>
+      <c r="F13" s="5" t="n">
+        <v>-0.3140729804932796</v>
+      </c>
+      <c r="G13" s="5" t="n">
+        <v>0.005022320575946267</v>
+      </c>
+      <c r="H13" s="5" t="n">
+        <v>-0.5110291003246623</v>
+      </c>
+      <c r="I13" s="5" t="n">
+        <v>0.4896345123070827</v>
+      </c>
+      <c r="J13" s="5" t="n">
+        <v>0.09390882576805482</v>
+      </c>
+      <c r="K13" s="5" t="n">
+        <v>-0.02735075752680865</v>
+      </c>
+      <c r="L13" s="5" t="n">
+        <v>-0.1385544752624323</v>
+      </c>
+      <c r="M13" s="5" t="n">
+        <v>-0.5133043892008291</v>
+      </c>
+      <c r="N13" s="5" t="n">
+        <v>0.7836109563250426</v>
+      </c>
+      <c r="O13" s="5" t="n">
+        <v>-0.01655743626384633</v>
+      </c>
+      <c r="P13" s="5" t="n">
+        <v>-0.1561326850633475</v>
+      </c>
+      <c r="Q13" s="5" t="n">
+        <v>-0.06813271508095604</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n"/>
@@ -925,21 +1225,51 @@
           <t>IC 95% inferior</t>
         </is>
       </c>
-      <c r="C14" s="5" t="inlineStr"/>
-      <c r="D14" s="5" t="inlineStr"/>
-      <c r="E14" s="5" t="inlineStr"/>
-      <c r="F14" s="5" t="inlineStr"/>
-      <c r="G14" s="5" t="inlineStr"/>
-      <c r="H14" s="5" t="inlineStr"/>
-      <c r="I14" s="5" t="inlineStr"/>
-      <c r="J14" s="5" t="inlineStr"/>
-      <c r="K14" s="5" t="inlineStr"/>
-      <c r="L14" s="5" t="inlineStr"/>
-      <c r="M14" s="5" t="inlineStr"/>
-      <c r="N14" s="5" t="inlineStr"/>
-      <c r="O14" s="5" t="inlineStr"/>
-      <c r="P14" s="5" t="inlineStr"/>
-      <c r="Q14" s="5" t="inlineStr"/>
+      <c r="C14" s="5" t="n">
+        <v>-0.7027667022004214</v>
+      </c>
+      <c r="D14" s="5" t="n">
+        <v>0.2857788251096994</v>
+      </c>
+      <c r="E14" s="5" t="n">
+        <v>-0.4752599572968856</v>
+      </c>
+      <c r="F14" s="5" t="n">
+        <v>-0.7330890198935665</v>
+      </c>
+      <c r="G14" s="5" t="n">
+        <v>-0.5490576303693655</v>
+      </c>
+      <c r="H14" s="5" t="n">
+        <v>-0.6593707463172284</v>
+      </c>
+      <c r="I14" s="5" t="n">
+        <v>0.009648175955095924</v>
+      </c>
+      <c r="J14" s="5" t="n">
+        <v>-0.1979301989199458</v>
+      </c>
+      <c r="K14" s="5" t="n">
+        <v>-0.3113215902906926</v>
+      </c>
+      <c r="L14" s="5" t="n">
+        <v>-0.4668633442755036</v>
+      </c>
+      <c r="M14" s="5" t="n">
+        <v>-0.6430229679136665</v>
+      </c>
+      <c r="N14" s="5" t="n">
+        <v>0.2929414861026061</v>
+      </c>
+      <c r="O14" s="5" t="n">
+        <v>-0.2465671534910217</v>
+      </c>
+      <c r="P14" s="5" t="n">
+        <v>-0.4388592552948777</v>
+      </c>
+      <c r="Q14" s="5" t="n">
+        <v>-0.3705413087975572</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n"/>
@@ -948,21 +1278,51 @@
           <t>IC 95% superior</t>
         </is>
       </c>
-      <c r="C15" s="5" t="inlineStr"/>
-      <c r="D15" s="5" t="inlineStr"/>
-      <c r="E15" s="5" t="inlineStr"/>
-      <c r="F15" s="5" t="inlineStr"/>
-      <c r="G15" s="5" t="inlineStr"/>
-      <c r="H15" s="5" t="inlineStr"/>
-      <c r="I15" s="5" t="inlineStr"/>
-      <c r="J15" s="5" t="inlineStr"/>
-      <c r="K15" s="5" t="inlineStr"/>
-      <c r="L15" s="5" t="inlineStr"/>
-      <c r="M15" s="5" t="inlineStr"/>
-      <c r="N15" s="5" t="inlineStr"/>
-      <c r="O15" s="5" t="inlineStr"/>
-      <c r="P15" s="5" t="inlineStr"/>
-      <c r="Q15" s="5" t="inlineStr"/>
+      <c r="C15" s="5" t="n">
+        <v>-0.2348326950205129</v>
+      </c>
+      <c r="D15" s="5" t="n">
+        <v>3.107070452870588</v>
+      </c>
+      <c r="E15" s="5" t="n">
+        <v>0.2821127288804828</v>
+      </c>
+      <c r="F15" s="5" t="n">
+        <v>0.2214197922069055</v>
+      </c>
+      <c r="G15" s="5" t="n">
+        <v>0.8488820479080507</v>
+      </c>
+      <c r="H15" s="5" t="n">
+        <v>-0.3093766613194532</v>
+      </c>
+      <c r="I15" s="5" t="n">
+        <v>1.154407946993124</v>
+      </c>
+      <c r="J15" s="5" t="n">
+        <v>0.5018488548917377</v>
+      </c>
+      <c r="K15" s="5" t="n">
+        <v>0.3922392755983241</v>
+      </c>
+      <c r="L15" s="5" t="n">
+        <v>0.4362171834798426</v>
+      </c>
+      <c r="M15" s="5" t="n">
+        <v>-0.3376546208005284</v>
+      </c>
+      <c r="N15" s="5" t="n">
+        <v>1.402988754242727</v>
+      </c>
+      <c r="O15" s="5" t="n">
+        <v>0.2486873872290255</v>
+      </c>
+      <c r="P15" s="5" t="n">
+        <v>0.1592229567520945</v>
+      </c>
+      <c r="Q15" s="5" t="n">
+        <v>0.3743987200065566</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
@@ -975,21 +1335,51 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C16" s="5" t="inlineStr"/>
-      <c r="D16" s="5" t="inlineStr"/>
-      <c r="E16" s="5" t="inlineStr"/>
-      <c r="F16" s="5" t="inlineStr"/>
-      <c r="G16" s="5" t="inlineStr"/>
-      <c r="H16" s="5" t="inlineStr"/>
-      <c r="I16" s="5" t="inlineStr"/>
-      <c r="J16" s="5" t="inlineStr"/>
-      <c r="K16" s="5" t="inlineStr"/>
-      <c r="L16" s="5" t="inlineStr"/>
-      <c r="M16" s="5" t="inlineStr"/>
-      <c r="N16" s="5" t="inlineStr"/>
-      <c r="O16" s="5" t="inlineStr"/>
-      <c r="P16" s="5" t="inlineStr"/>
-      <c r="Q16" s="5" t="inlineStr"/>
+      <c r="C16" s="5" t="n">
+        <v>-0.5986722746518004</v>
+      </c>
+      <c r="D16" s="5" t="n">
+        <v>0.1456603243792599</v>
+      </c>
+      <c r="E16" s="5" t="n">
+        <v>0.3906286200268216</v>
+      </c>
+      <c r="F16" s="5" t="n">
+        <v>-0.4026884057499073</v>
+      </c>
+      <c r="G16" s="5" t="n">
+        <v>0.09993569557552531</v>
+      </c>
+      <c r="H16" s="5" t="n">
+        <v>-0.4644868145585641</v>
+      </c>
+      <c r="I16" s="5" t="n">
+        <v>0.4678993133751234</v>
+      </c>
+      <c r="J16" s="5" t="n">
+        <v>0.03986156367964595</v>
+      </c>
+      <c r="K16" s="5" t="n">
+        <v>-0.322335319137436</v>
+      </c>
+      <c r="L16" s="5" t="n">
+        <v>0.5702142027889561</v>
+      </c>
+      <c r="M16" s="5" t="n">
+        <v>-0.5216998290598583</v>
+      </c>
+      <c r="N16" s="5" t="n">
+        <v>0.3183853497323402</v>
+      </c>
+      <c r="O16" s="5" t="n">
+        <v>0.1652543505652912</v>
+      </c>
+      <c r="P16" s="5" t="n">
+        <v>-0.3569298837736449</v>
+      </c>
+      <c r="Q16" s="5" t="n">
+        <v>0.3618232744229549</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n"/>
@@ -998,21 +1388,51 @@
           <t>IC 95% inferior</t>
         </is>
       </c>
-      <c r="C17" s="5" t="inlineStr"/>
-      <c r="D17" s="5" t="inlineStr"/>
-      <c r="E17" s="5" t="inlineStr"/>
-      <c r="F17" s="5" t="inlineStr"/>
-      <c r="G17" s="5" t="inlineStr"/>
-      <c r="H17" s="5" t="inlineStr"/>
-      <c r="I17" s="5" t="inlineStr"/>
-      <c r="J17" s="5" t="inlineStr"/>
-      <c r="K17" s="5" t="inlineStr"/>
-      <c r="L17" s="5" t="inlineStr"/>
-      <c r="M17" s="5" t="inlineStr"/>
-      <c r="N17" s="5" t="inlineStr"/>
-      <c r="O17" s="5" t="inlineStr"/>
-      <c r="P17" s="5" t="inlineStr"/>
-      <c r="Q17" s="5" t="inlineStr"/>
+      <c r="C17" s="5" t="n">
+        <v>-0.8021987188438747</v>
+      </c>
+      <c r="D17" s="5" t="n">
+        <v>-0.3355530102076832</v>
+      </c>
+      <c r="E17" s="5" t="n">
+        <v>-0.1236078084855233</v>
+      </c>
+      <c r="F17" s="5" t="n">
+        <v>-0.6914912592458831</v>
+      </c>
+      <c r="G17" s="5" t="n">
+        <v>-0.4925879848622774</v>
+      </c>
+      <c r="H17" s="5" t="n">
+        <v>-0.6688368838001429</v>
+      </c>
+      <c r="I17" s="5" t="n">
+        <v>-0.07431232630267254</v>
+      </c>
+      <c r="J17" s="5" t="n">
+        <v>-0.2688580397050832</v>
+      </c>
+      <c r="K17" s="5" t="n">
+        <v>-0.5934275315250067</v>
+      </c>
+      <c r="L17" s="5" t="n">
+        <v>-0.02226980964165041</v>
+      </c>
+      <c r="M17" s="5" t="n">
+        <v>-0.6637506328295038</v>
+      </c>
+      <c r="N17" s="5" t="n">
+        <v>-0.06684433358158771</v>
+      </c>
+      <c r="O17" s="5" t="n">
+        <v>-0.1269727173859994</v>
+      </c>
+      <c r="P17" s="5" t="n">
+        <v>-0.5751816234592808</v>
+      </c>
+      <c r="Q17" s="5" t="n">
+        <v>-0.1233355058078946</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n"/>
@@ -1021,21 +1441,51 @@
           <t>IC 95% superior</t>
         </is>
       </c>
-      <c r="C18" s="5" t="inlineStr"/>
-      <c r="D18" s="5" t="inlineStr"/>
-      <c r="E18" s="5" t="inlineStr"/>
-      <c r="F18" s="5" t="inlineStr"/>
-      <c r="G18" s="5" t="inlineStr"/>
-      <c r="H18" s="5" t="inlineStr"/>
-      <c r="I18" s="5" t="inlineStr"/>
-      <c r="J18" s="5" t="inlineStr"/>
-      <c r="K18" s="5" t="inlineStr"/>
-      <c r="L18" s="5" t="inlineStr"/>
-      <c r="M18" s="5" t="inlineStr"/>
-      <c r="N18" s="5" t="inlineStr"/>
-      <c r="O18" s="5" t="inlineStr"/>
-      <c r="P18" s="5" t="inlineStr"/>
-      <c r="Q18" s="5" t="inlineStr"/>
+      <c r="C18" s="5" t="n">
+        <v>-0.3194020158657357</v>
+      </c>
+      <c r="D18" s="5" t="n">
+        <v>0.9359132554749633</v>
+      </c>
+      <c r="E18" s="5" t="n">
+        <v>1.196777023238732</v>
+      </c>
+      <c r="F18" s="5" t="n">
+        <v>0.1589184281244081</v>
+      </c>
+      <c r="G18" s="5" t="n">
+        <v>1.583100213847892</v>
+      </c>
+      <c r="H18" s="5" t="n">
+        <v>-0.206047060141679</v>
+      </c>
+      <c r="I18" s="5" t="n">
+        <v>1.334550623030522</v>
+      </c>
+      <c r="J18" s="5" t="n">
+        <v>0.5126260028736942</v>
+      </c>
+      <c r="K18" s="5" t="n">
+        <v>0.1030239948077904</v>
+      </c>
+      <c r="L18" s="5" t="n">
+        <v>1.709555004436263</v>
+      </c>
+      <c r="M18" s="5" t="n">
+        <v>-0.3423259852900919</v>
+      </c>
+      <c r="N18" s="5" t="n">
+        <v>0.8499510396283598</v>
+      </c>
+      <c r="O18" s="5" t="n">
+        <v>0.5540562009179679</v>
+      </c>
+      <c r="P18" s="5" t="n">
+        <v>-0.03927988718844024</v>
+      </c>
+      <c r="Q18" s="5" t="n">
+        <v>1.116812275205982</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
@@ -1048,21 +1498,51 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C19" s="5" t="inlineStr"/>
-      <c r="D19" s="5" t="inlineStr"/>
-      <c r="E19" s="5" t="inlineStr"/>
-      <c r="F19" s="5" t="inlineStr"/>
-      <c r="G19" s="5" t="inlineStr"/>
-      <c r="H19" s="5" t="inlineStr"/>
-      <c r="I19" s="5" t="inlineStr"/>
-      <c r="J19" s="5" t="inlineStr"/>
-      <c r="K19" s="5" t="inlineStr"/>
-      <c r="L19" s="5" t="inlineStr"/>
-      <c r="M19" s="5" t="inlineStr"/>
-      <c r="N19" s="5" t="inlineStr"/>
-      <c r="O19" s="5" t="inlineStr"/>
-      <c r="P19" s="5" t="inlineStr"/>
-      <c r="Q19" s="5" t="inlineStr"/>
+      <c r="C19" s="5" t="n">
+        <v>-0.4118198118179881</v>
+      </c>
+      <c r="D19" s="5" t="n">
+        <v>0.9809865923294637</v>
+      </c>
+      <c r="E19" s="5" t="n">
+        <v>-0.04826729411115172</v>
+      </c>
+      <c r="F19" s="5" t="n">
+        <v>0.009783562794222576</v>
+      </c>
+      <c r="G19" s="5" t="n">
+        <v>-0.3652394455454284</v>
+      </c>
+      <c r="H19" s="5" t="n">
+        <v>-0.100209655535079</v>
+      </c>
+      <c r="I19" s="5" t="n">
+        <v>0.1276039256594854</v>
+      </c>
+      <c r="J19" s="5" t="n">
+        <v>0.1374584327337804</v>
+      </c>
+      <c r="K19" s="5" t="n">
+        <v>-0.3763932043841517</v>
+      </c>
+      <c r="L19" s="5" t="n">
+        <v>0.8294216522774952</v>
+      </c>
+      <c r="M19" s="5" t="n">
+        <v>-0.2132638399911432</v>
+      </c>
+      <c r="N19" s="5" t="n">
+        <v>0.3543665439036744</v>
+      </c>
+      <c r="O19" s="5" t="n">
+        <v>0.06864472960319244</v>
+      </c>
+      <c r="P19" s="5" t="n">
+        <v>-0.3179305664739571</v>
+      </c>
+      <c r="Q19" s="5" t="n">
+        <v>0.3578941671307105</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n"/>
@@ -1071,21 +1551,51 @@
           <t>IC 95% inferior</t>
         </is>
       </c>
-      <c r="C20" s="5" t="inlineStr"/>
-      <c r="D20" s="5" t="inlineStr"/>
-      <c r="E20" s="5" t="inlineStr"/>
-      <c r="F20" s="5" t="inlineStr"/>
-      <c r="G20" s="5" t="inlineStr"/>
-      <c r="H20" s="5" t="inlineStr"/>
-      <c r="I20" s="5" t="inlineStr"/>
-      <c r="J20" s="5" t="inlineStr"/>
-      <c r="K20" s="5" t="inlineStr"/>
-      <c r="L20" s="5" t="inlineStr"/>
-      <c r="M20" s="5" t="inlineStr"/>
-      <c r="N20" s="5" t="inlineStr"/>
-      <c r="O20" s="5" t="inlineStr"/>
-      <c r="P20" s="5" t="inlineStr"/>
-      <c r="Q20" s="5" t="inlineStr"/>
+      <c r="C20" s="5" t="n">
+        <v>-0.7232818320267872</v>
+      </c>
+      <c r="D20" s="5" t="n">
+        <v>-0.3950330469489818</v>
+      </c>
+      <c r="E20" s="5" t="n">
+        <v>-0.5048036648414665</v>
+      </c>
+      <c r="F20" s="5" t="n">
+        <v>-0.729822317994265</v>
+      </c>
+      <c r="G20" s="5" t="n">
+        <v>-0.7810186244988411</v>
+      </c>
+      <c r="H20" s="5" t="n">
+        <v>-0.4678231601562295</v>
+      </c>
+      <c r="I20" s="5" t="n">
+        <v>-0.3268133342371504</v>
+      </c>
+      <c r="J20" s="5" t="n">
+        <v>-0.2572547059297026</v>
+      </c>
+      <c r="K20" s="5" t="n">
+        <v>-0.6349927412514936</v>
+      </c>
+      <c r="L20" s="5" t="n">
+        <v>-0.1715076510526464</v>
+      </c>
+      <c r="M20" s="5" t="n">
+        <v>-0.4579917151756539</v>
+      </c>
+      <c r="N20" s="5" t="n">
+        <v>-0.1591750631169199</v>
+      </c>
+      <c r="O20" s="5" t="n">
+        <v>-0.2450540005032167</v>
+      </c>
+      <c r="P20" s="5" t="n">
+        <v>-0.594732802758729</v>
+      </c>
+      <c r="Q20" s="5" t="n">
+        <v>-0.2812269639981679</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n"/>
@@ -1094,21 +1604,51 @@
           <t>IC 95% superior</t>
         </is>
       </c>
-      <c r="C21" s="5" t="inlineStr"/>
-      <c r="D21" s="5" t="inlineStr"/>
-      <c r="E21" s="5" t="inlineStr"/>
-      <c r="F21" s="5" t="inlineStr"/>
-      <c r="G21" s="5" t="inlineStr"/>
-      <c r="H21" s="5" t="inlineStr"/>
-      <c r="I21" s="5" t="inlineStr"/>
-      <c r="J21" s="5" t="inlineStr"/>
-      <c r="K21" s="5" t="inlineStr"/>
-      <c r="L21" s="5" t="inlineStr"/>
-      <c r="M21" s="5" t="inlineStr"/>
-      <c r="N21" s="5" t="inlineStr"/>
-      <c r="O21" s="5" t="inlineStr"/>
-      <c r="P21" s="5" t="inlineStr"/>
-      <c r="Q21" s="5" t="inlineStr"/>
+      <c r="C21" s="5" t="n">
+        <v>0.2336939819379745</v>
+      </c>
+      <c r="D21" s="5" t="n">
+        <v>4.535591331170362</v>
+      </c>
+      <c r="E21" s="5" t="n">
+        <v>0.7382053510821133</v>
+      </c>
+      <c r="F21" s="5" t="n">
+        <v>1.99176011974659</v>
+      </c>
+      <c r="G21" s="5" t="n">
+        <v>0.6474753111788868</v>
+      </c>
+      <c r="H21" s="5" t="n">
+        <v>0.3615369614711015</v>
+      </c>
+      <c r="I21" s="5" t="n">
+        <v>0.8138413442658051</v>
+      </c>
+      <c r="J21" s="5" t="n">
+        <v>0.7400291697232884</v>
+      </c>
+      <c r="K21" s="5" t="n">
+        <v>0.03358734107437365</v>
+      </c>
+      <c r="L21" s="5" t="n">
+        <v>2.858344536048024</v>
+      </c>
+      <c r="M21" s="5" t="n">
+        <v>0.1644579995456483</v>
+      </c>
+      <c r="N21" s="5" t="n">
+        <v>1.225092052715387</v>
+      </c>
+      <c r="O21" s="5" t="n">
+        <v>0.5085766864010314</v>
+      </c>
+      <c r="P21" s="5" t="n">
+        <v>0.09215003914375292</v>
+      </c>
+      <c r="Q21" s="5" t="n">
+        <v>1.523148092185479</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
@@ -1121,21 +1661,51 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C22" s="5" t="inlineStr"/>
-      <c r="D22" s="5" t="inlineStr"/>
-      <c r="E22" s="5" t="inlineStr"/>
-      <c r="F22" s="5" t="inlineStr"/>
-      <c r="G22" s="5" t="inlineStr"/>
-      <c r="H22" s="5" t="inlineStr"/>
-      <c r="I22" s="5" t="inlineStr"/>
-      <c r="J22" s="5" t="inlineStr"/>
-      <c r="K22" s="5" t="inlineStr"/>
-      <c r="L22" s="5" t="inlineStr"/>
-      <c r="M22" s="5" t="inlineStr"/>
-      <c r="N22" s="5" t="inlineStr"/>
-      <c r="O22" s="5" t="inlineStr"/>
-      <c r="P22" s="5" t="inlineStr"/>
-      <c r="Q22" s="5" t="inlineStr"/>
+      <c r="C22" s="5" t="n">
+        <v>-0.6193737986264115</v>
+      </c>
+      <c r="D22" s="5" t="n">
+        <v>0.8609665776596391</v>
+      </c>
+      <c r="E22" s="5" t="n">
+        <v>-0.09996716709374949</v>
+      </c>
+      <c r="F22" s="5" t="n">
+        <v>0.1117440426440394</v>
+      </c>
+      <c r="G22" s="5" t="n">
+        <v>-0.02354618788737642</v>
+      </c>
+      <c r="H22" s="5" t="n">
+        <v>-0.5740564883281225</v>
+      </c>
+      <c r="I22" s="5" t="n">
+        <v>0.3336337658699376</v>
+      </c>
+      <c r="J22" s="5" t="n">
+        <v>0.06658900066595339</v>
+      </c>
+      <c r="K22" s="5" t="n">
+        <v>-0.2815893868635145</v>
+      </c>
+      <c r="L22" s="5" t="n">
+        <v>0.1264944395410142</v>
+      </c>
+      <c r="M22" s="5" t="n">
+        <v>-0.5925256680421913</v>
+      </c>
+      <c r="N22" s="5" t="n">
+        <v>0.5184167008573701</v>
+      </c>
+      <c r="O22" s="5" t="n">
+        <v>-0.002655326595876009</v>
+      </c>
+      <c r="P22" s="5" t="n">
+        <v>-0.1449084555899998</v>
+      </c>
+      <c r="Q22" s="5" t="n">
+        <v>0.05625244194964253</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n"/>
@@ -1144,21 +1714,51 @@
           <t>IC 95% inferior</t>
         </is>
       </c>
-      <c r="C23" s="5" t="inlineStr"/>
-      <c r="D23" s="5" t="inlineStr"/>
-      <c r="E23" s="5" t="inlineStr"/>
-      <c r="F23" s="5" t="inlineStr"/>
-      <c r="G23" s="5" t="inlineStr"/>
-      <c r="H23" s="5" t="inlineStr"/>
-      <c r="I23" s="5" t="inlineStr"/>
-      <c r="J23" s="5" t="inlineStr"/>
-      <c r="K23" s="5" t="inlineStr"/>
-      <c r="L23" s="5" t="inlineStr"/>
-      <c r="M23" s="5" t="inlineStr"/>
-      <c r="N23" s="5" t="inlineStr"/>
-      <c r="O23" s="5" t="inlineStr"/>
-      <c r="P23" s="5" t="inlineStr"/>
-      <c r="Q23" s="5" t="inlineStr"/>
+      <c r="C23" s="5" t="n">
+        <v>-0.7119951968101036</v>
+      </c>
+      <c r="D23" s="5" t="n">
+        <v>0.4042655087592694</v>
+      </c>
+      <c r="E23" s="5" t="n">
+        <v>-0.3110800148404096</v>
+      </c>
+      <c r="F23" s="5" t="n">
+        <v>-0.1996994520650855</v>
+      </c>
+      <c r="G23" s="5" t="n">
+        <v>-0.2943043996811966</v>
+      </c>
+      <c r="H23" s="5" t="n">
+        <v>-0.6460901652818696</v>
+      </c>
+      <c r="I23" s="5" t="n">
+        <v>0.09237668209039959</v>
+      </c>
+      <c r="J23" s="5" t="n">
+        <v>-0.07892889619054452</v>
+      </c>
+      <c r="K23" s="5" t="n">
+        <v>-0.4121138790470056</v>
+      </c>
+      <c r="L23" s="5" t="n">
+        <v>-0.1069138200991127</v>
+      </c>
+      <c r="M23" s="5" t="n">
+        <v>-0.6501969118008961</v>
+      </c>
+      <c r="N23" s="5" t="n">
+        <v>0.2836966261376384</v>
+      </c>
+      <c r="O23" s="5" t="n">
+        <v>-0.1299467988446385</v>
+      </c>
+      <c r="P23" s="5" t="n">
+        <v>-0.2865554620240451</v>
+      </c>
+      <c r="Q23" s="5" t="n">
+        <v>-0.1285145397619522</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n"/>
@@ -1167,21 +1767,51 @@
           <t>IC 95% superior</t>
         </is>
       </c>
-      <c r="C24" s="5" t="inlineStr"/>
-      <c r="D24" s="5" t="inlineStr"/>
-      <c r="E24" s="5" t="inlineStr"/>
-      <c r="F24" s="5" t="inlineStr"/>
-      <c r="G24" s="5" t="inlineStr"/>
-      <c r="H24" s="5" t="inlineStr"/>
-      <c r="I24" s="5" t="inlineStr"/>
-      <c r="J24" s="5" t="inlineStr"/>
-      <c r="K24" s="5" t="inlineStr"/>
-      <c r="L24" s="5" t="inlineStr"/>
-      <c r="M24" s="5" t="inlineStr"/>
-      <c r="N24" s="5" t="inlineStr"/>
-      <c r="O24" s="5" t="inlineStr"/>
-      <c r="P24" s="5" t="inlineStr"/>
-      <c r="Q24" s="5" t="inlineStr"/>
+      <c r="C24" s="5" t="n">
+        <v>-0.4955499467991006</v>
+      </c>
+      <c r="D24" s="5" t="n">
+        <v>1.549936959401575</v>
+      </c>
+      <c r="E24" s="5" t="n">
+        <v>0.1498802415097611</v>
+      </c>
+      <c r="F24" s="5" t="n">
+        <v>0.7289938729899363</v>
+      </c>
+      <c r="G24" s="5" t="n">
+        <v>0.3594910360164826</v>
+      </c>
+      <c r="H24" s="5" t="n">
+        <v>-0.4862836433177102</v>
+      </c>
+      <c r="I24" s="5" t="n">
+        <v>0.6086522019340844</v>
+      </c>
+      <c r="J24" s="5" t="n">
+        <v>0.2532469051030765</v>
+      </c>
+      <c r="K24" s="5" t="n">
+        <v>-0.1283184963733507</v>
+      </c>
+      <c r="L24" s="5" t="n">
+        <v>0.4472817836709591</v>
+      </c>
+      <c r="M24" s="5" t="n">
+        <v>-0.5193558664732645</v>
+      </c>
+      <c r="N24" s="5" t="n">
+        <v>0.8055521968836394</v>
+      </c>
+      <c r="O24" s="5" t="n">
+        <v>0.1590089227603986</v>
+      </c>
+      <c r="P24" s="5" t="n">
+        <v>0.0826360963971411</v>
+      </c>
+      <c r="Q24" s="5" t="n">
+        <v>0.288668059343983</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
